--- a/uploads/data.xlsx
+++ b/uploads/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/max/Documents/GitHub/carin-db/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27BFC01B-63F9-F84D-B548-18606A30621D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97548013-7C9B-B541-A973-45EBF9829BFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" tabRatio="764" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1544" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1796" uniqueCount="332">
   <si>
     <t>D1</t>
   </si>
@@ -1785,7 +1785,7 @@
   <dimension ref="A1:H97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A2" sqref="A2:A97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4197,7 +4197,7 @@
   <dimension ref="A1:H94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N19" sqref="N19"/>
+      <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -12183,10 +12183,10 @@
   <sheetPr>
     <tabColor theme="9"/>
   </sheetPr>
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E97"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H40" sqref="H40"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="H64" sqref="H64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -12213,7 +12213,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="A2" s="40" t="s">
         <v>93</v>
       </c>
       <c r="B2" t="s">
@@ -12230,7 +12230,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="A3" s="12" t="s">
         <v>60</v>
       </c>
       <c r="B3" t="s">
@@ -12247,7 +12247,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="A4" s="12" t="s">
         <v>61</v>
       </c>
       <c r="B4" t="s">
@@ -12264,7 +12264,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="A5" s="12" t="s">
         <v>62</v>
       </c>
       <c r="B5" t="s">
@@ -12281,7 +12281,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="A6" s="12" t="s">
         <v>63</v>
       </c>
       <c r="B6" t="s">
@@ -12298,7 +12298,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="A7" s="12" t="s">
         <v>64</v>
       </c>
       <c r="B7" t="s">
@@ -12315,7 +12315,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="A8" s="12" t="s">
         <v>65</v>
       </c>
       <c r="B8" t="s">
@@ -12332,7 +12332,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="A9" s="12" t="s">
         <v>66</v>
       </c>
       <c r="B9" t="s">
@@ -12349,7 +12349,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="A10" s="12" t="s">
         <v>67</v>
       </c>
       <c r="B10" t="s">
@@ -12366,7 +12366,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="A11" s="12" t="s">
         <v>68</v>
       </c>
       <c r="B11" t="s">
@@ -12383,7 +12383,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+      <c r="A12" s="12" t="s">
         <v>69</v>
       </c>
       <c r="B12" t="s">
@@ -12400,7 +12400,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+      <c r="A13" s="12" t="s">
         <v>70</v>
       </c>
       <c r="B13" t="s">
@@ -12413,6 +12413,1434 @@
         <v>37</v>
       </c>
       <c r="E13">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="B14" t="s">
+        <v>323</v>
+      </c>
+      <c r="C14" t="s">
+        <v>308</v>
+      </c>
+      <c r="D14">
+        <v>37</v>
+      </c>
+      <c r="E14">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="B15" t="s">
+        <v>323</v>
+      </c>
+      <c r="C15" t="s">
+        <v>308</v>
+      </c>
+      <c r="D15">
+        <v>37</v>
+      </c>
+      <c r="E15">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="B16" t="s">
+        <v>323</v>
+      </c>
+      <c r="C16" t="s">
+        <v>308</v>
+      </c>
+      <c r="D16">
+        <v>37</v>
+      </c>
+      <c r="E16">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="B17" t="s">
+        <v>323</v>
+      </c>
+      <c r="C17" t="s">
+        <v>308</v>
+      </c>
+      <c r="D17">
+        <v>37</v>
+      </c>
+      <c r="E17">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="B18" t="s">
+        <v>323</v>
+      </c>
+      <c r="C18" t="s">
+        <v>308</v>
+      </c>
+      <c r="D18">
+        <v>37</v>
+      </c>
+      <c r="E18">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="B19" t="s">
+        <v>323</v>
+      </c>
+      <c r="C19" t="s">
+        <v>308</v>
+      </c>
+      <c r="D19">
+        <v>37</v>
+      </c>
+      <c r="E19">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="B20" t="s">
+        <v>323</v>
+      </c>
+      <c r="C20" t="s">
+        <v>308</v>
+      </c>
+      <c r="D20">
+        <v>37</v>
+      </c>
+      <c r="E20">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="B21" t="s">
+        <v>323</v>
+      </c>
+      <c r="C21" t="s">
+        <v>308</v>
+      </c>
+      <c r="D21">
+        <v>37</v>
+      </c>
+      <c r="E21">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="B22" t="s">
+        <v>323</v>
+      </c>
+      <c r="C22" t="s">
+        <v>308</v>
+      </c>
+      <c r="D22">
+        <v>37</v>
+      </c>
+      <c r="E22">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="B23" t="s">
+        <v>323</v>
+      </c>
+      <c r="C23" t="s">
+        <v>308</v>
+      </c>
+      <c r="D23">
+        <v>37</v>
+      </c>
+      <c r="E23">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="B24" t="s">
+        <v>323</v>
+      </c>
+      <c r="C24" t="s">
+        <v>308</v>
+      </c>
+      <c r="D24">
+        <v>37</v>
+      </c>
+      <c r="E24">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="B25" t="s">
+        <v>323</v>
+      </c>
+      <c r="C25" t="s">
+        <v>308</v>
+      </c>
+      <c r="D25">
+        <v>37</v>
+      </c>
+      <c r="E25">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="B26" t="s">
+        <v>323</v>
+      </c>
+      <c r="C26" t="s">
+        <v>308</v>
+      </c>
+      <c r="D26">
+        <v>37</v>
+      </c>
+      <c r="E26">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="B27" t="s">
+        <v>323</v>
+      </c>
+      <c r="C27" t="s">
+        <v>308</v>
+      </c>
+      <c r="D27">
+        <v>37</v>
+      </c>
+      <c r="E27">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="B28" t="s">
+        <v>323</v>
+      </c>
+      <c r="C28" t="s">
+        <v>308</v>
+      </c>
+      <c r="D28">
+        <v>37</v>
+      </c>
+      <c r="E28">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="B29" t="s">
+        <v>323</v>
+      </c>
+      <c r="C29" t="s">
+        <v>308</v>
+      </c>
+      <c r="D29">
+        <v>37</v>
+      </c>
+      <c r="E29">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="B30" t="s">
+        <v>323</v>
+      </c>
+      <c r="C30" t="s">
+        <v>308</v>
+      </c>
+      <c r="D30">
+        <v>37</v>
+      </c>
+      <c r="E30">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="B31" t="s">
+        <v>323</v>
+      </c>
+      <c r="C31" t="s">
+        <v>308</v>
+      </c>
+      <c r="D31">
+        <v>37</v>
+      </c>
+      <c r="E31">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="B32" t="s">
+        <v>323</v>
+      </c>
+      <c r="C32" t="s">
+        <v>308</v>
+      </c>
+      <c r="D32">
+        <v>37</v>
+      </c>
+      <c r="E32">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="B33" t="s">
+        <v>323</v>
+      </c>
+      <c r="C33" t="s">
+        <v>308</v>
+      </c>
+      <c r="D33">
+        <v>37</v>
+      </c>
+      <c r="E33">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="B34" t="s">
+        <v>323</v>
+      </c>
+      <c r="C34" t="s">
+        <v>308</v>
+      </c>
+      <c r="D34">
+        <v>37</v>
+      </c>
+      <c r="E34">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" s="12" t="s">
+        <v>292</v>
+      </c>
+      <c r="B35" t="s">
+        <v>323</v>
+      </c>
+      <c r="C35" t="s">
+        <v>308</v>
+      </c>
+      <c r="D35">
+        <v>37</v>
+      </c>
+      <c r="E35">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" s="12" t="s">
+        <v>293</v>
+      </c>
+      <c r="B36" t="s">
+        <v>323</v>
+      </c>
+      <c r="C36" t="s">
+        <v>308</v>
+      </c>
+      <c r="D36">
+        <v>37</v>
+      </c>
+      <c r="E36">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" s="12" t="s">
+        <v>294</v>
+      </c>
+      <c r="B37" t="s">
+        <v>323</v>
+      </c>
+      <c r="C37" t="s">
+        <v>308</v>
+      </c>
+      <c r="D37">
+        <v>37</v>
+      </c>
+      <c r="E37">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B38" t="s">
+        <v>323</v>
+      </c>
+      <c r="C38" t="s">
+        <v>308</v>
+      </c>
+      <c r="D38">
+        <v>37</v>
+      </c>
+      <c r="E38">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B39" t="s">
+        <v>323</v>
+      </c>
+      <c r="C39" t="s">
+        <v>308</v>
+      </c>
+      <c r="D39">
+        <v>37</v>
+      </c>
+      <c r="E39">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B40" t="s">
+        <v>323</v>
+      </c>
+      <c r="C40" t="s">
+        <v>308</v>
+      </c>
+      <c r="D40">
+        <v>37</v>
+      </c>
+      <c r="E40">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B41" t="s">
+        <v>323</v>
+      </c>
+      <c r="C41" t="s">
+        <v>308</v>
+      </c>
+      <c r="D41">
+        <v>37</v>
+      </c>
+      <c r="E41">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B42" t="s">
+        <v>323</v>
+      </c>
+      <c r="C42" t="s">
+        <v>308</v>
+      </c>
+      <c r="D42">
+        <v>37</v>
+      </c>
+      <c r="E42">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B43" t="s">
+        <v>323</v>
+      </c>
+      <c r="C43" t="s">
+        <v>308</v>
+      </c>
+      <c r="D43">
+        <v>37</v>
+      </c>
+      <c r="E43">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B44" t="s">
+        <v>323</v>
+      </c>
+      <c r="C44" t="s">
+        <v>308</v>
+      </c>
+      <c r="D44">
+        <v>37</v>
+      </c>
+      <c r="E44">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B45" t="s">
+        <v>323</v>
+      </c>
+      <c r="C45" t="s">
+        <v>308</v>
+      </c>
+      <c r="D45">
+        <v>37</v>
+      </c>
+      <c r="E45">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B46" t="s">
+        <v>323</v>
+      </c>
+      <c r="C46" t="s">
+        <v>308</v>
+      </c>
+      <c r="D46">
+        <v>37</v>
+      </c>
+      <c r="E46">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B47" t="s">
+        <v>323</v>
+      </c>
+      <c r="C47" t="s">
+        <v>308</v>
+      </c>
+      <c r="D47">
+        <v>37</v>
+      </c>
+      <c r="E47">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B48" t="s">
+        <v>323</v>
+      </c>
+      <c r="C48" t="s">
+        <v>308</v>
+      </c>
+      <c r="D48">
+        <v>37</v>
+      </c>
+      <c r="E48">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B49" t="s">
+        <v>323</v>
+      </c>
+      <c r="C49" t="s">
+        <v>308</v>
+      </c>
+      <c r="D49">
+        <v>37</v>
+      </c>
+      <c r="E49">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B50" t="s">
+        <v>323</v>
+      </c>
+      <c r="C50" t="s">
+        <v>308</v>
+      </c>
+      <c r="D50">
+        <v>37</v>
+      </c>
+      <c r="E50">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B51" t="s">
+        <v>323</v>
+      </c>
+      <c r="C51" t="s">
+        <v>308</v>
+      </c>
+      <c r="D51">
+        <v>37</v>
+      </c>
+      <c r="E51">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A52" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B52" t="s">
+        <v>323</v>
+      </c>
+      <c r="C52" t="s">
+        <v>308</v>
+      </c>
+      <c r="D52">
+        <v>37</v>
+      </c>
+      <c r="E52">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A53" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B53" t="s">
+        <v>323</v>
+      </c>
+      <c r="C53" t="s">
+        <v>308</v>
+      </c>
+      <c r="D53">
+        <v>37</v>
+      </c>
+      <c r="E53">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A54" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B54" t="s">
+        <v>323</v>
+      </c>
+      <c r="C54" t="s">
+        <v>308</v>
+      </c>
+      <c r="D54">
+        <v>37</v>
+      </c>
+      <c r="E54">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A55" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B55" t="s">
+        <v>323</v>
+      </c>
+      <c r="C55" t="s">
+        <v>308</v>
+      </c>
+      <c r="D55">
+        <v>37</v>
+      </c>
+      <c r="E55">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A56" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B56" t="s">
+        <v>323</v>
+      </c>
+      <c r="C56" t="s">
+        <v>308</v>
+      </c>
+      <c r="D56">
+        <v>37</v>
+      </c>
+      <c r="E56">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A57" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B57" t="s">
+        <v>323</v>
+      </c>
+      <c r="C57" t="s">
+        <v>308</v>
+      </c>
+      <c r="D57">
+        <v>37</v>
+      </c>
+      <c r="E57">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A58" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B58" t="s">
+        <v>323</v>
+      </c>
+      <c r="C58" t="s">
+        <v>308</v>
+      </c>
+      <c r="D58">
+        <v>37</v>
+      </c>
+      <c r="E58">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A59" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B59" t="s">
+        <v>323</v>
+      </c>
+      <c r="C59" t="s">
+        <v>308</v>
+      </c>
+      <c r="D59">
+        <v>37</v>
+      </c>
+      <c r="E59">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A60" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B60" t="s">
+        <v>323</v>
+      </c>
+      <c r="C60" t="s">
+        <v>308</v>
+      </c>
+      <c r="D60">
+        <v>37</v>
+      </c>
+      <c r="E60">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A61" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B61" t="s">
+        <v>323</v>
+      </c>
+      <c r="C61" t="s">
+        <v>308</v>
+      </c>
+      <c r="D61">
+        <v>37</v>
+      </c>
+      <c r="E61">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A62" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B62" t="s">
+        <v>323</v>
+      </c>
+      <c r="C62" t="s">
+        <v>308</v>
+      </c>
+      <c r="D62">
+        <v>37</v>
+      </c>
+      <c r="E62">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A63" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B63" t="s">
+        <v>323</v>
+      </c>
+      <c r="C63" t="s">
+        <v>308</v>
+      </c>
+      <c r="D63">
+        <v>37</v>
+      </c>
+      <c r="E63">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A64" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B64" t="s">
+        <v>323</v>
+      </c>
+      <c r="C64" t="s">
+        <v>308</v>
+      </c>
+      <c r="D64">
+        <v>37</v>
+      </c>
+      <c r="E64">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A65" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B65" t="s">
+        <v>323</v>
+      </c>
+      <c r="C65" t="s">
+        <v>308</v>
+      </c>
+      <c r="D65">
+        <v>37</v>
+      </c>
+      <c r="E65">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A66" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B66" t="s">
+        <v>323</v>
+      </c>
+      <c r="C66" t="s">
+        <v>308</v>
+      </c>
+      <c r="D66">
+        <v>37</v>
+      </c>
+      <c r="E66">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A67" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B67" t="s">
+        <v>323</v>
+      </c>
+      <c r="C67" t="s">
+        <v>308</v>
+      </c>
+      <c r="D67">
+        <v>37</v>
+      </c>
+      <c r="E67">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A68" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B68" t="s">
+        <v>323</v>
+      </c>
+      <c r="C68" t="s">
+        <v>308</v>
+      </c>
+      <c r="D68">
+        <v>37</v>
+      </c>
+      <c r="E68">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A69" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B69" t="s">
+        <v>323</v>
+      </c>
+      <c r="C69" t="s">
+        <v>308</v>
+      </c>
+      <c r="D69">
+        <v>37</v>
+      </c>
+      <c r="E69">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A70" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B70" t="s">
+        <v>323</v>
+      </c>
+      <c r="C70" t="s">
+        <v>308</v>
+      </c>
+      <c r="D70">
+        <v>37</v>
+      </c>
+      <c r="E70">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A71" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B71" t="s">
+        <v>323</v>
+      </c>
+      <c r="C71" t="s">
+        <v>308</v>
+      </c>
+      <c r="D71">
+        <v>37</v>
+      </c>
+      <c r="E71">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A72" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B72" t="s">
+        <v>323</v>
+      </c>
+      <c r="C72" t="s">
+        <v>308</v>
+      </c>
+      <c r="D72">
+        <v>37</v>
+      </c>
+      <c r="E72">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A73" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B73" t="s">
+        <v>323</v>
+      </c>
+      <c r="C73" t="s">
+        <v>308</v>
+      </c>
+      <c r="D73">
+        <v>37</v>
+      </c>
+      <c r="E73">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A74" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B74" t="s">
+        <v>323</v>
+      </c>
+      <c r="C74" t="s">
+        <v>308</v>
+      </c>
+      <c r="D74">
+        <v>37</v>
+      </c>
+      <c r="E74">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A75" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B75" t="s">
+        <v>323</v>
+      </c>
+      <c r="C75" t="s">
+        <v>308</v>
+      </c>
+      <c r="D75">
+        <v>37</v>
+      </c>
+      <c r="E75">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A76" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B76" t="s">
+        <v>323</v>
+      </c>
+      <c r="C76" t="s">
+        <v>308</v>
+      </c>
+      <c r="D76">
+        <v>37</v>
+      </c>
+      <c r="E76">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A77" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B77" t="s">
+        <v>323</v>
+      </c>
+      <c r="C77" t="s">
+        <v>308</v>
+      </c>
+      <c r="D77">
+        <v>37</v>
+      </c>
+      <c r="E77">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A78" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B78" t="s">
+        <v>323</v>
+      </c>
+      <c r="C78" t="s">
+        <v>308</v>
+      </c>
+      <c r="D78">
+        <v>37</v>
+      </c>
+      <c r="E78">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A79" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B79" t="s">
+        <v>323</v>
+      </c>
+      <c r="C79" t="s">
+        <v>308</v>
+      </c>
+      <c r="D79">
+        <v>37</v>
+      </c>
+      <c r="E79">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A80" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B80" t="s">
+        <v>323</v>
+      </c>
+      <c r="C80" t="s">
+        <v>308</v>
+      </c>
+      <c r="D80">
+        <v>37</v>
+      </c>
+      <c r="E80">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A81" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B81" t="s">
+        <v>323</v>
+      </c>
+      <c r="C81" t="s">
+        <v>308</v>
+      </c>
+      <c r="D81">
+        <v>37</v>
+      </c>
+      <c r="E81">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A82" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B82" t="s">
+        <v>323</v>
+      </c>
+      <c r="C82" t="s">
+        <v>308</v>
+      </c>
+      <c r="D82">
+        <v>37</v>
+      </c>
+      <c r="E82">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A83" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B83" t="s">
+        <v>323</v>
+      </c>
+      <c r="C83" t="s">
+        <v>308</v>
+      </c>
+      <c r="D83">
+        <v>37</v>
+      </c>
+      <c r="E83">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A84" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="B84" t="s">
+        <v>323</v>
+      </c>
+      <c r="C84" t="s">
+        <v>308</v>
+      </c>
+      <c r="D84">
+        <v>37</v>
+      </c>
+      <c r="E84">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A85" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B85" t="s">
+        <v>323</v>
+      </c>
+      <c r="C85" t="s">
+        <v>308</v>
+      </c>
+      <c r="D85">
+        <v>37</v>
+      </c>
+      <c r="E85">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A86" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="B86" t="s">
+        <v>323</v>
+      </c>
+      <c r="C86" t="s">
+        <v>308</v>
+      </c>
+      <c r="D86">
+        <v>37</v>
+      </c>
+      <c r="E86">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A87" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="B87" t="s">
+        <v>323</v>
+      </c>
+      <c r="C87" t="s">
+        <v>308</v>
+      </c>
+      <c r="D87">
+        <v>37</v>
+      </c>
+      <c r="E87">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A88" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="B88" t="s">
+        <v>323</v>
+      </c>
+      <c r="C88" t="s">
+        <v>308</v>
+      </c>
+      <c r="D88">
+        <v>37</v>
+      </c>
+      <c r="E88">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A89" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="B89" t="s">
+        <v>323</v>
+      </c>
+      <c r="C89" t="s">
+        <v>308</v>
+      </c>
+      <c r="D89">
+        <v>37</v>
+      </c>
+      <c r="E89">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A90" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="B90" t="s">
+        <v>323</v>
+      </c>
+      <c r="C90" t="s">
+        <v>308</v>
+      </c>
+      <c r="D90">
+        <v>37</v>
+      </c>
+      <c r="E90">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A91" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B91" t="s">
+        <v>323</v>
+      </c>
+      <c r="C91" t="s">
+        <v>308</v>
+      </c>
+      <c r="D91">
+        <v>37</v>
+      </c>
+      <c r="E91">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A92" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B92" t="s">
+        <v>323</v>
+      </c>
+      <c r="C92" t="s">
+        <v>308</v>
+      </c>
+      <c r="D92">
+        <v>37</v>
+      </c>
+      <c r="E92">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A93" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="B93" t="s">
+        <v>323</v>
+      </c>
+      <c r="C93" t="s">
+        <v>308</v>
+      </c>
+      <c r="D93">
+        <v>37</v>
+      </c>
+      <c r="E93">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A94" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="B94" t="s">
+        <v>323</v>
+      </c>
+      <c r="C94" t="s">
+        <v>308</v>
+      </c>
+      <c r="D94">
+        <v>37</v>
+      </c>
+      <c r="E94">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A95" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="B95" t="s">
+        <v>323</v>
+      </c>
+      <c r="C95" t="s">
+        <v>308</v>
+      </c>
+      <c r="D95">
+        <v>37</v>
+      </c>
+      <c r="E95">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A96" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="B96" t="s">
+        <v>323</v>
+      </c>
+      <c r="C96" t="s">
+        <v>308</v>
+      </c>
+      <c r="D96">
+        <v>37</v>
+      </c>
+      <c r="E96">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A97" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="B97" t="s">
+        <v>323</v>
+      </c>
+      <c r="C97" t="s">
+        <v>308</v>
+      </c>
+      <c r="D97">
+        <v>37</v>
+      </c>
+      <c r="E97">
         <v>7.4</v>
       </c>
     </row>
